--- a/Base/Teams/Browns/Players Stats.xlsx
+++ b/Base/Teams/Browns/Players Stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/Simulation app/Browns/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Browns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7F00E63-1216-4FD6-9433-712D1184FA74}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95361CBE-0586-4C7D-8DFD-BF011214C6A4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10632" yWindow="2304" windowWidth="10860" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QB" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>J.Bradley</t>
+  </si>
+  <si>
+    <t>N.Mullens</t>
   </si>
 </sst>
 </file>
@@ -472,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,7 +523,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -558,39 +561,77 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>0</v>
       </c>
     </row>
@@ -874,7 +915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12D00DA-02B2-4502-AFFA-15E1047659D6}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>

--- a/Base/Teams/Browns/Players Stats.xlsx
+++ b/Base/Teams/Browns/Players Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Browns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95361CBE-0586-4C7D-8DFD-BF011214C6A4}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A62C3A2E-3BE8-40CE-B190-F6234E534C4C}"/>
   <bookViews>
-    <workbookView xWindow="10632" yWindow="2304" windowWidth="10860" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QB" sheetId="1" r:id="rId1"/>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,7 +523,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
